--- a/result/NCDC_weather_data/stations_imputed/45045099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/45045099999.xlsx
@@ -567,7 +567,9 @@
       <c r="M2" t="n">
         <v>8.385372</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>14.64731893135436</v>
+      </c>
       <c r="O2" t="n">
         <v>146.66</v>
       </c>
@@ -621,7 +623,9 @@
       <c r="M3" t="n">
         <v>9.414252000000001</v>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>14.64731893135436</v>
+      </c>
       <c r="O3" t="n">
         <v>162.86</v>
       </c>
@@ -675,7 +679,9 @@
       <c r="M4" t="n">
         <v>10.906128</v>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>14.64731893135436</v>
+      </c>
       <c r="O4" t="n">
         <v>150.26</v>
       </c>
@@ -729,7 +735,9 @@
       <c r="M5" t="n">
         <v>10.80324</v>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>14.64731893135436</v>
+      </c>
       <c r="O5" t="n">
         <v>154.4</v>
       </c>
@@ -783,7 +791,9 @@
       <c r="M6" t="n">
         <v>5.607396</v>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>14.64731893135436</v>
+      </c>
       <c r="O6" t="n">
         <v>160.88</v>
       </c>
@@ -837,7 +847,9 @@
       <c r="M7" t="n">
         <v>11.986452</v>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>14.64731893135436</v>
+      </c>
       <c r="O7" t="n">
         <v>161.6</v>
       </c>
@@ -891,7 +903,9 @@
       <c r="M8" t="n">
         <v>10.597464</v>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>14.64731893135436</v>
+      </c>
       <c r="O8" t="n">
         <v>150.26</v>
       </c>
@@ -945,7 +959,9 @@
       <c r="M9" t="n">
         <v>8.385372</v>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>14.64731893135436</v>
+      </c>
       <c r="O9" t="n">
         <v>153.5</v>
       </c>
@@ -999,7 +1015,9 @@
       <c r="M10" t="n">
         <v>7.7166</v>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>14.64731893135436</v>
+      </c>
       <c r="O10" t="n">
         <v>149.54</v>
       </c>
@@ -1053,7 +1071,9 @@
       <c r="M11" t="n">
         <v>10.083024</v>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="n">
+        <v>14.64731893135436</v>
+      </c>
       <c r="O11" t="n">
         <v>151.16</v>
       </c>
@@ -1107,7 +1127,9 @@
       <c r="M12" t="n">
         <v>12.192228</v>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="n">
+        <v>14.64731893135436</v>
+      </c>
       <c r="O12" t="n">
         <v>141.8</v>
       </c>
@@ -1161,7 +1183,9 @@
       <c r="M13" t="n">
         <v>9.877248</v>
       </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="n">
+        <v>14.64731893135436</v>
+      </c>
       <c r="O13" t="n">
         <v>143.06</v>
       </c>
@@ -1215,7 +1239,9 @@
       <c r="M14" t="n">
         <v>9.980136</v>
       </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="n">
+        <v>14.64731893135436</v>
+      </c>
       <c r="O14" t="n">
         <v>148.28</v>
       </c>
@@ -1269,7 +1295,9 @@
       <c r="M15" t="n">
         <v>11.214792</v>
       </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="n">
+        <v>14.64731893135436</v>
+      </c>
       <c r="O15" t="n">
         <v>147.92</v>
       </c>
@@ -1323,7 +1351,9 @@
       <c r="M16" t="n">
         <v>12.398004</v>
       </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>14.64731893135436</v>
+      </c>
       <c r="O16" t="n">
         <v>149.54</v>
       </c>
@@ -1377,7 +1407,9 @@
       <c r="M17" t="n">
         <v>11.009016</v>
       </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="N17" t="n">
+        <v>14.64731893135436</v>
+      </c>
       <c r="O17" t="n">
         <v>151.16</v>
       </c>
@@ -1431,7 +1463,9 @@
       <c r="M18" t="n">
         <v>10.597464</v>
       </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="N18" t="n">
+        <v>14.64731893135436</v>
+      </c>
       <c r="O18" t="n">
         <v>145.4</v>
       </c>
@@ -1485,7 +1519,9 @@
       <c r="M19" t="n">
         <v>6.018948</v>
       </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="N19" t="n">
+        <v>14.64731893135436</v>
+      </c>
       <c r="O19" t="n">
         <v>146.66</v>
       </c>
@@ -1539,7 +1575,9 @@
       <c r="M20" t="n">
         <v>10.083024</v>
       </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="N20" t="n">
+        <v>14.64731893135436</v>
+      </c>
       <c r="O20" t="n">
         <v>148.64</v>
       </c>
@@ -1593,7 +1631,9 @@
       <c r="M21" t="n">
         <v>10.185912</v>
       </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="N21" t="n">
+        <v>14.64731893135436</v>
+      </c>
       <c r="O21" t="n">
         <v>151.16</v>
       </c>
@@ -1647,7 +1687,9 @@
       <c r="M22" t="n">
         <v>12.295116</v>
       </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="N22" t="n">
+        <v>14.64731893135436</v>
+      </c>
       <c r="O22" t="n">
         <v>147.02</v>
       </c>
@@ -1701,7 +1743,9 @@
       <c r="M23" t="n">
         <v>12.60378</v>
       </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="N23" t="n">
+        <v>14.64731893135436</v>
+      </c>
       <c r="O23" t="n">
         <v>145.4</v>
       </c>
@@ -1755,7 +1799,9 @@
       <c r="M24" t="n">
         <v>6.018948</v>
       </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="N24" t="n">
+        <v>14.64731893135436</v>
+      </c>
       <c r="O24" t="n">
         <v>154.4</v>
       </c>
@@ -1809,7 +1855,9 @@
       <c r="M25" t="n">
         <v>10.083024</v>
       </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="N25" t="n">
+        <v>14.64731893135436</v>
+      </c>
       <c r="O25" t="n">
         <v>153.14</v>
       </c>
@@ -1863,7 +1911,9 @@
       <c r="M26" t="n">
         <v>9.311364000000001</v>
       </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="N26" t="n">
+        <v>14.64731893135436</v>
+      </c>
       <c r="O26" t="n">
         <v>149.54</v>
       </c>
@@ -1917,7 +1967,9 @@
       <c r="M27" t="n">
         <v>9.311364000000001</v>
       </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="N27" t="n">
+        <v>14.64731893135436</v>
+      </c>
       <c r="O27" t="n">
         <v>150.26</v>
       </c>
@@ -1971,7 +2023,9 @@
       <c r="M28" t="n">
         <v>8.591148</v>
       </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="N28" t="n">
+        <v>14.64731893135436</v>
+      </c>
       <c r="O28" t="n">
         <v>151.52</v>
       </c>
@@ -2025,7 +2079,9 @@
       <c r="M29" t="n">
         <v>11.472012</v>
       </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="N29" t="n">
+        <v>14.64731893135436</v>
+      </c>
       <c r="O29" t="n">
         <v>150.26</v>
       </c>
@@ -2079,7 +2135,9 @@
       <c r="M30" t="n">
         <v>8.796924000000001</v>
       </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="N30" t="n">
+        <v>14.64731893135436</v>
+      </c>
       <c r="O30" t="n">
         <v>150.26</v>
       </c>
@@ -2133,7 +2191,9 @@
       <c r="M31" t="n">
         <v>12.912444</v>
       </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="n">
+        <v>14.64731893135436</v>
+      </c>
       <c r="O31" t="n">
         <v>150.26</v>
       </c>
